--- a/biology/Zoologie/Fukuititan/Fukuititan.xlsx
+++ b/biology/Zoologie/Fukuititan/Fukuititan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fukuititan nipponensis
 Fukuititan est un genre éteint de dinosaures macronariens du Crétacé inférieur retrouvé au Japon. 
-L'espèce type et seule espèce, F. nipponensis, a été décrite par Yoichi Azuma et Masateru Shibata en 2010[1]. Elle est basée sur l'holotype FPDM-V8468, composé de fossiles retrouvés dans la formation géologique de Kitadani du groupe de Tetori, à Katsuyama.
+L'espèce type et seule espèce, F. nipponensis, a été décrite par Yoichi Azuma et Masateru Shibata en 2010. Elle est basée sur l'holotype FPDM-V8468, composé de fossiles retrouvés dans la formation géologique de Kitadani du groupe de Tetori, à Katsuyama.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fukuititan a été découvert dans la même carrière que Fukuisaurus tetoriensis, mais dans un niveau stratigraphique un peu plus récent, daté du Barrémien supérieur à l'Aptien, soit environ entre 127 et 115 Ma (millions d'années)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fukuititan a été découvert dans la même carrière que Fukuisaurus tetoriensis, mais dans un niveau stratigraphique un peu plus récent, daté du Barrémien supérieur à l'Aptien, soit environ entre 127 et 115 Ma (millions d'années).
 </t>
         </is>
       </c>
